--- a/Results/Sentiwordnet/hasil_lex_FOOD.xlsx
+++ b/Results/Sentiwordnet/hasil_lex_FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="485">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>1016296:4</t>
   </si>
   <si>
-    <t>1032695:1</t>
-  </si>
-  <si>
     <t>1032695:2</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>1064477:3</t>
   </si>
   <si>
-    <t>1064477:4</t>
-  </si>
-  <si>
     <t>1074868:4</t>
   </si>
   <si>
@@ -229,6 +223,9 @@
     <t>1230993:4</t>
   </si>
   <si>
+    <t>1232468:0</t>
+  </si>
+  <si>
     <t>1241906:0</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
     <t>1318537:0</t>
   </si>
   <si>
+    <t>1318537:4</t>
+  </si>
+  <si>
     <t>1328078:3</t>
   </si>
   <si>
@@ -577,9 +577,6 @@
     <t>chow fun was dry; pork shu mai was more than usually greasy and had to share a table with loud and rude family.</t>
   </si>
   <si>
-    <t>everything is always cooked to perfection, the service is excellent, the decor cool and understated.</t>
-  </si>
-  <si>
     <t>i had the duck breast special on my last visit and it was incredible.</t>
   </si>
   <si>
@@ -613,9 +610,6 @@
     <t>the rice to fish ration was also good--they didn't try to overpack the rice.</t>
   </si>
   <si>
-    <t>we took advanatage of the half price sushi deal on saturday so it was well worth it.</t>
-  </si>
-  <si>
     <t>the food was well prepared and the service impecable.</t>
   </si>
   <si>
@@ -760,6 +754,9 @@
     <t>the food was good too.</t>
   </si>
   <si>
+    <t>the tuna and wasabe potatoes are excellent.</t>
+  </si>
+  <si>
     <t>great service, great food.</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
     <t>fresh restaurant was amazing........ food was delicious and of course fresh.</t>
   </si>
   <si>
+    <t>hats off to the chef.</t>
+  </si>
+  <si>
     <t>the salads are delicious, both refreshing and very spicy.</t>
   </si>
   <si>
@@ -1096,265 +1096,373 @@
     <t>lousy</t>
   </si>
   <si>
-    <t>consistently</t>
+    <t>many|good</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>good|interesting</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>averagethe</t>
+  </si>
+  <si>
+    <t>innovative|innovative</t>
+  </si>
+  <si>
+    <t>extensive|purple</t>
+  </si>
+  <si>
+    <t>great|good</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>prepared|prepared</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>tasty</t>
+  </si>
+  <si>
+    <t>good|good|good</t>
+  </si>
+  <si>
+    <t>dissapointing</t>
+  </si>
+  <si>
+    <t>bland|bland</t>
+  </si>
+  <si>
+    <t>great|great|great|great|great|great|great|great|great|great</t>
+  </si>
+  <si>
+    <t>incredible|incredible|incredible</t>
+  </si>
+  <si>
+    <t>cold|cold</t>
+  </si>
+  <si>
+    <t>soggy|soggy</t>
+  </si>
+  <si>
+    <t>good|good|fancy|good</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great|good|amazing|good|great|great</t>
+  </si>
+  <si>
+    <t>delicious|unusual|delicious</t>
+  </si>
+  <si>
+    <t>fried|fried</t>
+  </si>
+  <si>
+    <t>japanese|japanese|japanese|japanese</t>
+  </si>
+  <si>
+    <t>good|prepared|good</t>
+  </si>
+  <si>
+    <t>great|delicious|delicious</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>great|great|great|great</t>
+  </si>
+  <si>
+    <t>great|great|great</t>
+  </si>
+  <si>
+    <t>yummy|yummy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>phenomenal</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>great|thai|thailand</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>crunchy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>great|great|great|great|great</t>
+  </si>
+  <si>
+    <t>only|only|only|only|best|best</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>welll|welll|welll</t>
+  </si>
+  <si>
+    <t>exotic|delicious</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>rude</t>
-  </si>
-  <si>
-    <t>perfection</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>innovative</t>
-  </si>
-  <si>
-    <t>haze</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>reasonable</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>overpriced</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>unusual</t>
-  </si>
-  <si>
-    <t>fried</t>
-  </si>
-  <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>phenomenal</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>variety</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>fairly</t>
-  </si>
-  <si>
-    <t>beautifully</t>
+    <t>good|good</t>
+  </si>
+  <si>
+    <t>excellent|excellent|excellent</t>
+  </si>
+  <si>
+    <t>delicious|most|delicious|most|delicious</t>
+  </si>
+  <si>
+    <t>nice|nice|nice</t>
+  </si>
+  <si>
+    <t>fast|fast|best|best</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>upstate|better|upstate|better</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>good|good|good|good|good</t>
+  </si>
+  <si>
+    <t>rough|delicious|rough|delicious|delicious</t>
+  </si>
+  <si>
+    <t>delicious|delicious|delicious</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>little|little|little</t>
+  </si>
+  <si>
+    <t>delicous</t>
+  </si>
+  <si>
+    <t>much|fresh|much|much|much|fresh</t>
+  </si>
+  <si>
+    <t>other|other</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>boring|boring|soggy|other|other</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>amazing|fresh|amazing</t>
+  </si>
+  <si>
+    <t>delicious|delicious</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>more|less</t>
+  </si>
+  <si>
+    <t>nice|nice</t>
+  </si>
+  <si>
+    <t>timely</t>
+  </si>
+  <si>
+    <t>simple|simple</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>big|big</t>
+  </si>
+  <si>
+    <t>authentic|delicious</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
+    <t>flavorless|flavorless|flavorless|flavorless</t>
+  </si>
+  <si>
+    <t>excellent|excellent</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <t>thai|thai</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>above|above</t>
+  </si>
+  <si>
+    <t>edible|bland|weird|weird|weird</t>
+  </si>
+  <si>
+    <t>bad|delicious</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>great|great|great|great|great|great</t>
+  </si>
+  <si>
+    <t>greatest|good|pricey|good|pricey|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|greatest</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>freeze</t>
-  </si>
-  <si>
-    <t>heaven</t>
-  </si>
-  <si>
-    <t>overlooked</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>rough</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>messy</t>
-  </si>
-  <si>
-    <t>delicous</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>organic</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>efficiently</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>authentic</t>
-  </si>
-  <si>
-    <t>terrific</t>
+    <t>mortal|mortal</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>worth|worth</t>
+  </si>
+  <si>
+    <t>best|most</t>
+  </si>
+  <si>
+    <t>nasty</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>great|great|great|great|good|good</t>
+  </si>
+  <si>
+    <t>great|tasty|tasty</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>taiwanese</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>great|good|great|reasonable</t>
+  </si>
+  <si>
+    <t>goodbut</t>
+  </si>
+  <si>
+    <t>amazing|amazing</t>
+  </si>
+  <si>
+    <t>good|chinese</t>
+  </si>
+  <si>
+    <t>speedy</t>
+  </si>
+  <si>
+    <t>good|friendly|expensive|friendly|expensive|good|trendy</t>
+  </si>
+  <si>
+    <t>pricey|pricey</t>
+  </si>
+  <si>
+    <t>solid|nice</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>superb</t>
-  </si>
-  <si>
-    <t>thai</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>redeeming</t>
-  </si>
-  <si>
-    <t>overdone</t>
-  </si>
-  <si>
-    <t>recommended</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>mortal</t>
-  </si>
-  <si>
-    <t>exceptional</t>
-  </si>
-  <si>
-    <t>nasty</t>
-  </si>
-  <si>
-    <t>extensive</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>expensive</t>
-  </si>
-  <si>
-    <t>reasonably</t>
-  </si>
-  <si>
-    <t>exceeded</t>
-  </si>
-  <si>
-    <t>speedy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>pricey</t>
-  </si>
-  <si>
-    <t>plentiful</t>
+    <t>flavorful</t>
   </si>
   <si>
     <t>horrible</t>
   </si>
   <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>inedible</t>
-  </si>
-  <si>
-    <t>complimentary</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good|good|acceptable|acceptable</t>
+  </si>
+  <si>
+    <t>possible|inedible</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>great|good|free</t>
+  </si>
+  <si>
+    <t>fishy|fishy</t>
+  </si>
+  <si>
+    <t>empty|stale</t>
   </si>
   <si>
     <t>negative</t>
@@ -1755,10 +1863,10 @@
         <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1775,10 +1883,10 @@
         <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1795,10 +1903,10 @@
         <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1815,10 +1923,10 @@
         <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1835,10 +1943,10 @@
         <v>363</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F6" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1855,10 +1963,10 @@
         <v>364</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1875,10 +1983,10 @@
         <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F8" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1892,13 +2000,13 @@
         <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E9" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F9" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1912,13 +2020,13 @@
         <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E10" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F10" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1932,13 +2040,13 @@
         <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1952,13 +2060,13 @@
         <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E12" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F12" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1972,13 +2080,13 @@
         <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F13" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1995,10 +2103,10 @@
         <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2015,10 +2123,10 @@
         <v>371</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F15" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2035,10 +2143,10 @@
         <v>372</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F16" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2055,10 +2163,10 @@
         <v>373</v>
       </c>
       <c r="E17" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F17" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2075,10 +2183,10 @@
         <v>374</v>
       </c>
       <c r="E18" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F18" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2095,10 +2203,10 @@
         <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F19" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2112,13 +2220,13 @@
         <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F20" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2132,13 +2240,13 @@
         <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F21" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2155,10 +2263,10 @@
         <v>377</v>
       </c>
       <c r="E22" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F22" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2172,13 +2280,13 @@
         <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E23" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F23" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2192,13 +2300,13 @@
         <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F24" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2212,13 +2320,13 @@
         <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F25" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2232,13 +2340,13 @@
         <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2252,13 +2360,13 @@
         <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E27" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2272,13 +2380,13 @@
         <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F28" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2292,13 +2400,13 @@
         <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F29" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2312,13 +2420,13 @@
         <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E30" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F30" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2332,13 +2440,13 @@
         <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E31" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F31" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2352,13 +2460,13 @@
         <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E32" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F32" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2372,13 +2480,13 @@
         <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E33" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F33" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2392,13 +2500,13 @@
         <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E34" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F34" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2412,13 +2520,13 @@
         <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E35" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F35" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2432,13 +2540,13 @@
         <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F36" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2451,11 +2559,14 @@
       <c r="C37" t="s">
         <v>217</v>
       </c>
+      <c r="D37" t="s">
+        <v>391</v>
+      </c>
       <c r="E37" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F37" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2469,13 +2580,13 @@
         <v>218</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="E38" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F38" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2489,13 +2600,13 @@
         <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="E39" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F39" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2509,13 +2620,13 @@
         <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E40" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F40" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2529,13 +2640,13 @@
         <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="E41" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F41" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2549,13 +2660,13 @@
         <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F42" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2569,13 +2680,13 @@
         <v>223</v>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="E43" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F43" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2589,13 +2700,13 @@
         <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F44" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2609,13 +2720,13 @@
         <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E45" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F45" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2629,13 +2740,13 @@
         <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E46" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F46" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2649,13 +2760,13 @@
         <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="E47" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F47" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2669,13 +2780,13 @@
         <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="E48" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F48" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2689,13 +2800,13 @@
         <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E49" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F49" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2709,13 +2820,13 @@
         <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E50" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F50" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2728,14 +2839,11 @@
       <c r="C51" t="s">
         <v>231</v>
       </c>
-      <c r="D51" t="s">
-        <v>371</v>
-      </c>
       <c r="E51" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F51" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2749,13 +2857,13 @@
         <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="E52" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F52" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2769,13 +2877,13 @@
         <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E53" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2789,13 +2897,13 @@
         <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2809,13 +2917,13 @@
         <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2829,13 +2937,13 @@
         <v>236</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="E56" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F56" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2849,13 +2957,13 @@
         <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="E57" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2869,13 +2977,13 @@
         <v>238</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="E58" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F58" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2889,13 +2997,13 @@
         <v>239</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="E59" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2909,13 +3017,13 @@
         <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="E60" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F60" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2929,13 +3037,13 @@
         <v>241</v>
       </c>
       <c r="D61" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="E61" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F61" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2948,14 +3056,11 @@
       <c r="C62" t="s">
         <v>242</v>
       </c>
-      <c r="D62" t="s">
-        <v>381</v>
-      </c>
       <c r="E62" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F62" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2969,13 +3074,13 @@
         <v>243</v>
       </c>
       <c r="D63" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="E63" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F63" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2989,13 +3094,13 @@
         <v>244</v>
       </c>
       <c r="D64" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="E64" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F64" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3009,13 +3114,13 @@
         <v>245</v>
       </c>
       <c r="D65" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="E65" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F65" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3029,13 +3134,13 @@
         <v>246</v>
       </c>
       <c r="D66" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="E66" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F66" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3049,13 +3154,13 @@
         <v>247</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="E67" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F67" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3069,13 +3174,13 @@
         <v>248</v>
       </c>
       <c r="D68" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="E68" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3089,13 +3194,13 @@
         <v>249</v>
       </c>
       <c r="D69" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="E69" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F69" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3109,13 +3214,13 @@
         <v>250</v>
       </c>
       <c r="D70" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="E70" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F70" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3129,13 +3234,13 @@
         <v>251</v>
       </c>
       <c r="D71" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="E71" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F71" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3149,13 +3254,13 @@
         <v>252</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="E72" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F72" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3168,14 +3273,11 @@
       <c r="C73" t="s">
         <v>253</v>
       </c>
-      <c r="D73" t="s">
-        <v>400</v>
-      </c>
       <c r="E73" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F73" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3188,11 +3290,14 @@
       <c r="C74" t="s">
         <v>254</v>
       </c>
+      <c r="D74" t="s">
+        <v>417</v>
+      </c>
       <c r="E74" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F74" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3206,13 +3311,13 @@
         <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="E75" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F75" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3225,14 +3330,11 @@
       <c r="C76" t="s">
         <v>256</v>
       </c>
-      <c r="D76" t="s">
-        <v>402</v>
-      </c>
       <c r="E76" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F76" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3246,13 +3348,13 @@
         <v>257</v>
       </c>
       <c r="D77" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="E77" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F77" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3266,13 +3368,13 @@
         <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E78" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F78" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3286,13 +3388,13 @@
         <v>259</v>
       </c>
       <c r="D79" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E79" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F79" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3306,13 +3408,13 @@
         <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="E80" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F80" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3326,13 +3428,13 @@
         <v>261</v>
       </c>
       <c r="D81" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="E81" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F81" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3346,13 +3448,13 @@
         <v>262</v>
       </c>
       <c r="D82" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="E82" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F82" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3366,13 +3468,13 @@
         <v>263</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E83" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F83" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3386,13 +3488,13 @@
         <v>264</v>
       </c>
       <c r="D84" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="E84" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F84" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3406,13 +3508,13 @@
         <v>265</v>
       </c>
       <c r="D85" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="E85" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F85" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3426,13 +3528,13 @@
         <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="E86" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F86" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3446,13 +3548,13 @@
         <v>267</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="E87" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F87" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3466,13 +3568,13 @@
         <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E88" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F88" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3486,13 +3588,13 @@
         <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="E89" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F89" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3506,13 +3608,13 @@
         <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="E90" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F90" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3526,13 +3628,13 @@
         <v>271</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="E91" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F91" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3545,14 +3647,11 @@
       <c r="C92" t="s">
         <v>272</v>
       </c>
-      <c r="D92" t="s">
-        <v>411</v>
-      </c>
       <c r="E92" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F92" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3566,13 +3665,13 @@
         <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E93" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F93" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3586,13 +3685,13 @@
         <v>274</v>
       </c>
       <c r="D94" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="E94" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F94" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3606,13 +3705,13 @@
         <v>275</v>
       </c>
       <c r="D95" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E95" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F95" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3626,13 +3725,13 @@
         <v>276</v>
       </c>
       <c r="D96" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E96" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F96" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3646,13 +3745,13 @@
         <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="E97" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F97" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3666,13 +3765,13 @@
         <v>278</v>
       </c>
       <c r="D98" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E98" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F98" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3686,13 +3785,13 @@
         <v>279</v>
       </c>
       <c r="D99" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E99" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F99" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3706,13 +3805,13 @@
         <v>280</v>
       </c>
       <c r="D100" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="E100" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F100" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3726,13 +3825,13 @@
         <v>281</v>
       </c>
       <c r="D101" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E101" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F101" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3746,13 +3845,13 @@
         <v>282</v>
       </c>
       <c r="D102" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="E102" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F102" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3766,13 +3865,13 @@
         <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E103" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F103" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3786,13 +3885,13 @@
         <v>284</v>
       </c>
       <c r="D104" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="E104" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F104" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3806,13 +3905,13 @@
         <v>285</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="E105" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F105" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3826,13 +3925,13 @@
         <v>286</v>
       </c>
       <c r="D106" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="E106" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F106" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3846,13 +3945,13 @@
         <v>287</v>
       </c>
       <c r="D107" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E107" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F107" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3866,13 +3965,13 @@
         <v>288</v>
       </c>
       <c r="D108" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="E108" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F108" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3886,13 +3985,13 @@
         <v>289</v>
       </c>
       <c r="D109" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E109" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F109" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3906,13 +4005,13 @@
         <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="E110" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F110" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3926,13 +4025,13 @@
         <v>291</v>
       </c>
       <c r="D111" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="E111" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F111" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3946,13 +4045,13 @@
         <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="E112" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F112" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3969,10 +4068,10 @@
         <v>359</v>
       </c>
       <c r="E113" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F113" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3986,13 +4085,13 @@
         <v>294</v>
       </c>
       <c r="D114" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="E114" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F114" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4006,13 +4105,13 @@
         <v>295</v>
       </c>
       <c r="D115" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="E115" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F115" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4026,13 +4125,13 @@
         <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="E116" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F116" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4049,10 +4148,10 @@
         <v>361</v>
       </c>
       <c r="E117" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F117" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4066,13 +4165,13 @@
         <v>298</v>
       </c>
       <c r="D118" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="E118" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F118" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4086,13 +4185,13 @@
         <v>299</v>
       </c>
       <c r="D119" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E119" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F119" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4106,13 +4205,13 @@
         <v>300</v>
       </c>
       <c r="D120" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F120" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4126,13 +4225,13 @@
         <v>301</v>
       </c>
       <c r="D121" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="E121" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F121" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4146,13 +4245,13 @@
         <v>302</v>
       </c>
       <c r="D122" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="E122" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F122" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4166,13 +4265,13 @@
         <v>303</v>
       </c>
       <c r="D123" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="E123" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F123" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4185,14 +4284,11 @@
       <c r="C124" t="s">
         <v>304</v>
       </c>
-      <c r="D124" t="s">
-        <v>426</v>
-      </c>
       <c r="E124" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F124" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4205,14 +4301,11 @@
       <c r="C125" t="s">
         <v>305</v>
       </c>
-      <c r="D125" t="s">
-        <v>427</v>
-      </c>
       <c r="E125" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F125" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4226,13 +4319,13 @@
         <v>306</v>
       </c>
       <c r="D126" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
       <c r="E126" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F126" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4246,13 +4339,13 @@
         <v>307</v>
       </c>
       <c r="D127" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="E127" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F127" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4266,13 +4359,13 @@
         <v>308</v>
       </c>
       <c r="D128" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="E128" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F128" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4286,13 +4379,13 @@
         <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>371</v>
+        <v>451</v>
       </c>
       <c r="E129" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F129" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4306,13 +4399,13 @@
         <v>310</v>
       </c>
       <c r="D130" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="E130" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F130" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4326,13 +4419,13 @@
         <v>311</v>
       </c>
       <c r="D131" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="E131" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F131" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4346,13 +4439,13 @@
         <v>312</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="E132" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F132" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4366,13 +4459,13 @@
         <v>313</v>
       </c>
       <c r="D133" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="E133" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F133" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4386,13 +4479,13 @@
         <v>314</v>
       </c>
       <c r="D134" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="E134" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F134" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4406,13 +4499,13 @@
         <v>315</v>
       </c>
       <c r="D135" t="s">
-        <v>382</v>
+        <v>457</v>
       </c>
       <c r="E135" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F135" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4426,13 +4519,13 @@
         <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="E136" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F136" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4445,14 +4538,11 @@
       <c r="C137" t="s">
         <v>317</v>
       </c>
-      <c r="D137" t="s">
-        <v>378</v>
-      </c>
       <c r="E137" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F137" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4466,13 +4556,13 @@
         <v>318</v>
       </c>
       <c r="D138" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E138" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F138" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4486,13 +4576,13 @@
         <v>319</v>
       </c>
       <c r="D139" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E139" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F139" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4506,13 +4596,13 @@
         <v>320</v>
       </c>
       <c r="D140" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="E140" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F140" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4526,13 +4616,13 @@
         <v>321</v>
       </c>
       <c r="D141" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="E141" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F141" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4546,13 +4636,13 @@
         <v>322</v>
       </c>
       <c r="D142" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="E142" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F142" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4566,13 +4656,13 @@
         <v>323</v>
       </c>
       <c r="D143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E143" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F143" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4586,13 +4676,13 @@
         <v>324</v>
       </c>
       <c r="D144" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="E144" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F144" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4606,13 +4696,13 @@
         <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="E145" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F145" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4626,13 +4716,13 @@
         <v>326</v>
       </c>
       <c r="D146" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="E146" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F146" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4646,13 +4736,13 @@
         <v>327</v>
       </c>
       <c r="D147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E147" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F147" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4666,13 +4756,13 @@
         <v>328</v>
       </c>
       <c r="D148" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E148" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F148" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4686,13 +4776,13 @@
         <v>329</v>
       </c>
       <c r="D149" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E149" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F149" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4706,13 +4796,13 @@
         <v>330</v>
       </c>
       <c r="D150" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="E150" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F150" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4726,13 +4816,13 @@
         <v>331</v>
       </c>
       <c r="D151" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="E151" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F151" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4746,13 +4836,13 @@
         <v>332</v>
       </c>
       <c r="D152" t="s">
-        <v>374</v>
+        <v>465</v>
       </c>
       <c r="E152" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F152" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4766,13 +4856,13 @@
         <v>333</v>
       </c>
       <c r="D153" t="s">
-        <v>381</v>
+        <v>466</v>
       </c>
       <c r="E153" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F153" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4786,13 +4876,13 @@
         <v>334</v>
       </c>
       <c r="D154" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E154" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F154" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4806,13 +4896,13 @@
         <v>335</v>
       </c>
       <c r="D155" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="E155" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F155" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4826,13 +4916,13 @@
         <v>336</v>
       </c>
       <c r="D156" t="s">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="E156" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F156" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4846,13 +4936,13 @@
         <v>337</v>
       </c>
       <c r="D157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E157" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F157" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4866,13 +4956,13 @@
         <v>338</v>
       </c>
       <c r="D158" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="E158" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F158" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4886,13 +4976,13 @@
         <v>339</v>
       </c>
       <c r="D159" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="E159" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F159" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4906,13 +4996,13 @@
         <v>340</v>
       </c>
       <c r="D160" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="E160" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F160" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4926,13 +5016,13 @@
         <v>341</v>
       </c>
       <c r="D161" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="E161" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F161" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4946,13 +5036,13 @@
         <v>342</v>
       </c>
       <c r="D162" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="E162" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F162" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4966,13 +5056,13 @@
         <v>343</v>
       </c>
       <c r="D163" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E163" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F163" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4986,13 +5076,13 @@
         <v>344</v>
       </c>
       <c r="D164" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="E164" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F164" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5006,13 +5096,13 @@
         <v>345</v>
       </c>
       <c r="D165" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E165" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F165" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5026,13 +5116,13 @@
         <v>346</v>
       </c>
       <c r="D166" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E166" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F166" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5046,13 +5136,13 @@
         <v>347</v>
       </c>
       <c r="D167" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E167" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F167" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5066,13 +5156,13 @@
         <v>348</v>
       </c>
       <c r="D168" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="E168" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F168" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5086,13 +5176,13 @@
         <v>349</v>
       </c>
       <c r="D169" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="E169" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F169" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5106,13 +5196,13 @@
         <v>350</v>
       </c>
       <c r="D170" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E170" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F170" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5126,13 +5216,13 @@
         <v>351</v>
       </c>
       <c r="D171" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="E171" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F171" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5146,13 +5236,13 @@
         <v>352</v>
       </c>
       <c r="D172" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="E172" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F172" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5166,13 +5256,13 @@
         <v>353</v>
       </c>
       <c r="D173" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="E173" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F173" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5186,13 +5276,13 @@
         <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="E174" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F174" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5206,13 +5296,13 @@
         <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="E175" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F175" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5226,13 +5316,13 @@
         <v>356</v>
       </c>
       <c r="D176" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E176" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="F176" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5246,13 +5336,13 @@
         <v>357</v>
       </c>
       <c r="D177" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="E177" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F177" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5266,13 +5356,13 @@
         <v>358</v>
       </c>
       <c r="D178" t="s">
-        <v>381</v>
+        <v>482</v>
       </c>
       <c r="E178" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F178" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
